--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdptlab.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdptlab.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7220516948065794</v>
+        <v>0.7220516901896268</v>
       </c>
       <c r="F2" t="n">
-        <v>1.513596752836174</v>
+        <v>1.513596753942793</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17393707526395</v>
+        <v>1.173937054733831</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3883996435676333</v>
+        <v>0.3883995974237943</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.74338030406616</v>
+        <v>-45.7433976405126</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7479191792778132</v>
+        <v>0.747919179724868</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8246053542961311</v>
+        <v>0.8246053591038159</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11429977176197</v>
+        <v>1.114299775633548</v>
       </c>
       <c r="M2" t="n">
-        <v>1.022147986444539</v>
+        <v>1.022147983894568</v>
       </c>
       <c r="N2" t="n">
         <v>30.33333333333333</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.031476641509288</v>
+        <v>1.031476641565718</v>
       </c>
       <c r="F3" t="n">
-        <v>1.784261297397138</v>
+        <v>1.784261297432381</v>
       </c>
       <c r="G3" t="n">
-        <v>1.21206678411689</v>
+        <v>1.212066784312204</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26150744902183</v>
+        <v>0.2615074491786231</v>
       </c>
       <c r="I3" t="n">
-        <v>-41.85105991180234</v>
+        <v>-41.85105980884082</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9916761392951804</v>
+        <v>0.9916761392690684</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9305249643932062</v>
+        <v>0.9305249643773822</v>
       </c>
       <c r="L3" t="n">
-        <v>1.362859703310391</v>
+        <v>1.36285970328053</v>
       </c>
       <c r="M3" t="n">
-        <v>1.151371830196599</v>
+        <v>1.151371830286766</v>
       </c>
       <c r="N3" t="n">
         <v>31</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253230564815636</v>
+        <v>1.253230564453438</v>
       </c>
       <c r="F4" t="n">
-        <v>2.216903761834474</v>
+        <v>2.216903761459322</v>
       </c>
       <c r="G4" t="n">
-        <v>1.233956431963141</v>
+        <v>1.23395643284321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.61517990106798</v>
+        <v>0.6151799060719441</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.23667797395729</v>
+        <v>-37.23667559686179</v>
       </c>
       <c r="J4" t="n">
-        <v>1.010571844668459</v>
+        <v>1.010571844752162</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9070572986665421</v>
+        <v>0.9070572982590387</v>
       </c>
       <c r="L4" t="n">
-        <v>1.358096633326862</v>
+        <v>1.358096633118543</v>
       </c>
       <c r="M4" t="n">
-        <v>1.751193981396649</v>
+        <v>1.751193981076725</v>
       </c>
       <c r="N4" t="n">
         <v>25.66666666666667</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.035512212842833</v>
+        <v>1.035512212843225</v>
       </c>
       <c r="F5" t="n">
-        <v>1.525892454048285</v>
+        <v>1.525892454049281</v>
       </c>
       <c r="G5" t="n">
-        <v>1.563884107934048</v>
+        <v>1.563884107925882</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5071875201776</v>
+        <v>0.5071875201634081</v>
       </c>
       <c r="I5" t="n">
-        <v>-31.92853080453052</v>
+        <v>-31.9285308086288</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6052537311205809</v>
+        <v>0.6052537311206511</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7974105589567428</v>
+        <v>0.7974105589566024</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001211331305464</v>
+        <v>1.001211331305395</v>
       </c>
       <c r="M5" t="n">
-        <v>1.151303556711419</v>
+        <v>1.151303556712754</v>
       </c>
       <c r="N5" t="n">
         <v>37</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.010030220350248</v>
+        <v>1.010030220351113</v>
       </c>
       <c r="F6" t="n">
-        <v>1.323848133698667</v>
+        <v>1.323848133699197</v>
       </c>
       <c r="G6" t="n">
-        <v>1.561387178241792</v>
+        <v>1.5613871782449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6504043456322393</v>
+        <v>0.6504043456368814</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.08738411061018</v>
+        <v>-28.08738410883359</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7218655319385681</v>
+        <v>0.7218655319384647</v>
       </c>
       <c r="K6" t="n">
-        <v>0.711234447099535</v>
+        <v>0.7112344470993194</v>
       </c>
       <c r="L6" t="n">
-        <v>1.013416679249109</v>
+        <v>1.013416679248884</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8512765260155005</v>
+        <v>0.8512765260166194</v>
       </c>
       <c r="N6" t="n">
         <v>63</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6871997043162912</v>
+        <v>0.687199704286364</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9506052054923808</v>
+        <v>0.9506052054569895</v>
       </c>
       <c r="G7" t="n">
-        <v>1.715135466534775</v>
+        <v>1.715135466978097</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9467231898202991</v>
+        <v>0.946723190405199</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.09195815084113</v>
+        <v>-22.09195798719605</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4224027973770544</v>
+        <v>0.422402797398842</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6011422191858974</v>
+        <v>0.6011422191627395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7348441263599262</v>
+        <v>0.7348441263535204</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6029996205013339</v>
+        <v>0.60299962045332</v>
       </c>
       <c r="N7" t="n">
         <v>70.66666666666667</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6063252961239995</v>
+        <v>0.6063252961248434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8038857260077855</v>
+        <v>0.803885726008655</v>
       </c>
       <c r="G8" t="n">
-        <v>1.850744304773059</v>
+        <v>1.850744304768189</v>
       </c>
       <c r="H8" t="n">
-        <v>1.017897918927834</v>
+        <v>1.017897918917924</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.41198874704719</v>
+        <v>-17.41198874921441</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3952957926288267</v>
+        <v>0.395295792628547</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5301969126311736</v>
+        <v>0.5301969126311757</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6613423997531925</v>
+        <v>0.6613423997530269</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4568337958419823</v>
+        <v>0.4568337958437474</v>
       </c>
       <c r="N8" t="n">
         <v>71.66666666666667</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.691736553858663</v>
+        <v>0.6917365535886505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8862047679879527</v>
+        <v>0.8862047677570216</v>
       </c>
       <c r="G9" t="n">
-        <v>1.889622686863788</v>
+        <v>1.889622687593961</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9209239589853837</v>
+        <v>0.9209239607629343</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.60032231580737</v>
+        <v>-12.60032195824733</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3929553987857743</v>
+        <v>0.392955398796685</v>
       </c>
       <c r="K9" t="n">
-        <v>0.535887503796364</v>
+        <v>0.5358875038512352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6645521327917306</v>
+        <v>0.6645521328424745</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5861315391660328</v>
+        <v>0.5861315387590308</v>
       </c>
       <c r="N9" t="n">
         <v>68.33333333333333</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.396378201315134</v>
+        <v>0.3963782007877167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7884333549751193</v>
+        <v>0.7884333549010184</v>
       </c>
       <c r="G10" t="n">
-        <v>1.842717440613285</v>
+        <v>1.842717442372172</v>
       </c>
       <c r="H10" t="n">
-        <v>1.159238147670844</v>
+        <v>1.15923815622214</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.390190335202753</v>
+        <v>-6.390189276701957</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2369372002684799</v>
+        <v>0.2369372002017601</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2794041791416741</v>
+        <v>0.2794041792802486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3663617311881167</v>
+        <v>0.3663617312504885</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6980157477139857</v>
+        <v>0.6980157475969863</v>
       </c>
       <c r="N10" t="n">
         <v>56.66666666666666</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>1.322817063457886</v>
+        <v>1.322817063458514</v>
       </c>
       <c r="F11" t="n">
-        <v>2.266643707239719</v>
+        <v>2.26664370724035</v>
       </c>
       <c r="G11" t="n">
-        <v>1.910957208381471</v>
+        <v>1.910957208390319</v>
       </c>
       <c r="H11" t="n">
-        <v>1.101072208683869</v>
+        <v>1.101072208669962</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.120366490773741</v>
+        <v>-2.120366494689064</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2450752168080541</v>
+        <v>0.245075216808165</v>
       </c>
       <c r="K11" t="n">
-        <v>0.292193163833456</v>
+        <v>0.2921931638339282</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3814537321980095</v>
+        <v>0.3814537321984484</v>
       </c>
       <c r="M11" t="n">
-        <v>2.234108369632083</v>
+        <v>2.234108369632644</v>
       </c>
       <c r="N11" t="n">
         <v>64.33333333333333</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8089445199932679</v>
+        <v>0.8089445199636889</v>
       </c>
       <c r="F12" t="n">
-        <v>1.205682148562777</v>
+        <v>1.205682148526546</v>
       </c>
       <c r="G12" t="n">
-        <v>1.883557721600785</v>
+        <v>1.883557721813967</v>
       </c>
       <c r="H12" t="n">
-        <v>1.201939146319224</v>
+        <v>1.201939146695698</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.259864997053798</v>
+        <v>-1.259865197236919</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2417830605914371</v>
+        <v>0.2417830605881364</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2545289666560877</v>
+        <v>0.2545289666403293</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3511128143140902</v>
+        <v>0.3511128143004447</v>
       </c>
       <c r="M12" t="n">
-        <v>1.153408840525948</v>
+        <v>1.153408840492191</v>
       </c>
       <c r="N12" t="n">
         <v>64</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3918402532657992</v>
+        <v>0.3918402534958963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8180625238386557</v>
+        <v>0.8180625242499864</v>
       </c>
       <c r="G13" t="n">
-        <v>1.730470856145189</v>
+        <v>1.730470850709082</v>
       </c>
       <c r="H13" t="n">
-        <v>1.136088300543236</v>
+        <v>1.136088301449907</v>
       </c>
       <c r="I13" t="n">
-        <v>2.826427961969596</v>
+        <v>2.826428975590192</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2610140210638232</v>
+        <v>0.2610140212785526</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2549490548849445</v>
+        <v>0.2549490550270588</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3650106006625758</v>
+        <v>0.3650106009139841</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7320450691348824</v>
+        <v>0.7320450694689168</v>
       </c>
       <c r="N13" t="n">
         <v>14.33333333333333</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2450417839967814</v>
+        <v>0.2450417839965984</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5000225601880923</v>
+        <v>0.5000225601885032</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84939444067398</v>
+        <v>1.849394440676273</v>
       </c>
       <c r="H14" t="n">
-        <v>1.136300983917617</v>
+        <v>1.136300983922107</v>
       </c>
       <c r="I14" t="n">
-        <v>11.12022238519294</v>
+        <v>11.12022238664516</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1457780174241125</v>
+        <v>0.1457780174246225</v>
       </c>
       <c r="K14" t="n">
-        <v>0.163621162855513</v>
+        <v>0.163621162856718</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2198107302921896</v>
+        <v>0.2198107302934351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4490366897750324</v>
+        <v>0.449036689774872</v>
       </c>
       <c r="N14" t="n">
         <v>8.666666666666666</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1924986510228443</v>
+        <v>0.1924986508235238</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6271801248877987</v>
+        <v>0.6271801257816799</v>
       </c>
       <c r="G15" t="n">
-        <v>1.674382969071113</v>
+        <v>1.674383013192198</v>
       </c>
       <c r="H15" t="n">
-        <v>1.161275430010126</v>
+        <v>1.161275417520585</v>
       </c>
       <c r="I15" t="n">
-        <v>14.08685130038245</v>
+        <v>14.08683393769313</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2077981671446131</v>
+        <v>0.2077981770827732</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2427130667007882</v>
+        <v>0.2427130593417226</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3200626633201614</v>
+        <v>0.3200626640941338</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5366117733031331</v>
+        <v>0.5366117739765773</v>
       </c>
       <c r="N15" t="n">
         <v>12</v>
@@ -1229,31 +1229,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2784317533692182</v>
+        <v>0.2784317533695891</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5723361597947929</v>
+        <v>0.5723361597952509</v>
       </c>
       <c r="G16" t="n">
-        <v>1.724991619667321</v>
+        <v>1.724991619661959</v>
       </c>
       <c r="H16" t="n">
-        <v>0.880787206411128</v>
+        <v>0.8807872064128143</v>
       </c>
       <c r="I16" t="n">
-        <v>25.95548544226585</v>
+        <v>25.95548544430369</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1666427810432097</v>
+        <v>0.1666427810430894</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3781030114314256</v>
+        <v>0.3781030114316812</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4153722337300678</v>
+        <v>0.4153722337302218</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3838740134372065</v>
+        <v>0.3838740134376908</v>
       </c>
       <c r="N16" t="n">
         <v>8.666666666666666</v>
@@ -1279,31 +1279,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4499515320558721</v>
+        <v>0.4499515320558709</v>
       </c>
       <c r="F17" t="n">
-        <v>0.884473931821554</v>
+        <v>0.8844739318213034</v>
       </c>
       <c r="G17" t="n">
-        <v>1.436744292015514</v>
+        <v>1.4367442920136</v>
       </c>
       <c r="H17" t="n">
-        <v>1.141564084275728</v>
+        <v>1.141564084280636</v>
       </c>
       <c r="I17" t="n">
-        <v>30.70336368026622</v>
+        <v>30.7033636825329</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2751633078017227</v>
+        <v>0.2751633078020637</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4069775714803619</v>
+        <v>0.406977571480482</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4926374803633042</v>
+        <v>0.4926374803636033</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7344260398192741</v>
+        <v>0.7344260398187511</v>
       </c>
       <c r="N17" t="n">
         <v>44.33333333333334</v>
@@ -1329,31 +1329,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6344388911750922</v>
+        <v>0.634438891372162</v>
       </c>
       <c r="F18" t="n">
-        <v>1.234765805399037</v>
+        <v>1.234765805304362</v>
       </c>
       <c r="G18" t="n">
-        <v>1.474257885566828</v>
+        <v>1.474257885819971</v>
       </c>
       <c r="H18" t="n">
-        <v>1.047405317622122</v>
+        <v>1.047405323965885</v>
       </c>
       <c r="I18" t="n">
-        <v>35.92260439021626</v>
+        <v>35.92260668246824</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4522585348017718</v>
+        <v>0.4522585350490662</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6070606705534488</v>
+        <v>0.6070606707587719</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7593187213044444</v>
+        <v>0.7593187216165708</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9720572099093601</v>
+        <v>0.9720572095643342</v>
       </c>
       <c r="N18" t="n">
         <v>44.66666666666666</v>
@@ -1379,31 +1379,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8001997821715697</v>
+        <v>0.8001997821735506</v>
       </c>
       <c r="F19" t="n">
-        <v>1.363129454278132</v>
+        <v>1.363129454279097</v>
       </c>
       <c r="G19" t="n">
-        <v>1.525016109217972</v>
+        <v>1.525016109193966</v>
       </c>
       <c r="H19" t="n">
-        <v>1.152888567211998</v>
+        <v>1.152888567271001</v>
       </c>
       <c r="I19" t="n">
-        <v>40.55083072485517</v>
+        <v>40.55083074123163</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4560898643272714</v>
+        <v>0.4560898643343016</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6296943653696471</v>
+        <v>0.6296943653661218</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7778350797779615</v>
+        <v>0.7778350797792259</v>
       </c>
       <c r="M19" t="n">
-        <v>1.119077108702799</v>
+        <v>1.119077108703207</v>
       </c>
       <c r="N19" t="n">
         <v>44.33333333333334</v>
@@ -1429,31 +1429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7709497347141351</v>
+        <v>0.7709497307225407</v>
       </c>
       <c r="F20" t="n">
-        <v>1.447853598305929</v>
+        <v>1.447853593655676</v>
       </c>
       <c r="G20" t="n">
-        <v>1.370185166265287</v>
+        <v>1.370185205433207</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8970273738152628</v>
+        <v>0.8970273572383576</v>
       </c>
       <c r="I20" t="n">
-        <v>44.54484467762731</v>
+        <v>44.54482885972181</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4477728488250208</v>
+        <v>0.4477728417617526</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9854494573759131</v>
+        <v>0.985449460588658</v>
       </c>
       <c r="L20" t="n">
-        <v>1.083522383622692</v>
+        <v>1.083522383603926</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9534221106331572</v>
+        <v>0.9534221035250333</v>
       </c>
       <c r="N20" t="n">
         <v>41</v>
@@ -1479,31 +1479,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.657485184499298</v>
+        <v>0.6574851847837571</v>
       </c>
       <c r="F21" t="n">
-        <v>1.341773214369612</v>
+        <v>1.341773214627952</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9637074810304777</v>
+        <v>0.9637074826125058</v>
       </c>
       <c r="H21" t="n">
-        <v>1.175915941447859</v>
+        <v>1.175915941691661</v>
       </c>
       <c r="I21" t="n">
-        <v>49.42888056745428</v>
+        <v>49.42887974403332</v>
       </c>
       <c r="J21" t="n">
-        <v>0.645685204133949</v>
+        <v>0.6456852039945042</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8862288205852881</v>
+        <v>0.8862288206195239</v>
       </c>
       <c r="L21" t="n">
-        <v>1.097218541630638</v>
+        <v>1.09721854157565</v>
       </c>
       <c r="M21" t="n">
-        <v>1.139174251715809</v>
+        <v>1.139174251887823</v>
       </c>
       <c r="N21" t="n">
         <v>42</v>

--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdptlab.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdptlab.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7220516901896268</v>
+        <v>0.7220516901886121</v>
       </c>
       <c r="F2" t="n">
-        <v>1.513596753942793</v>
+        <v>1.513596753943038</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173937054733831</v>
+        <v>1.173937054729379</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3883995974237943</v>
+        <v>0.3883995974139225</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.7433976405126</v>
+        <v>-45.74339764423891</v>
       </c>
       <c r="J2" t="n">
-        <v>0.747919179724868</v>
+        <v>0.7479191797249892</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8246053591038159</v>
+        <v>0.8246053591048175</v>
       </c>
       <c r="L2" t="n">
-        <v>1.114299775633548</v>
+        <v>1.114299775634372</v>
       </c>
       <c r="M2" t="n">
-        <v>1.022147983894568</v>
+        <v>1.022147983894018</v>
       </c>
       <c r="N2" t="n">
         <v>30.33333333333333</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.031476641565718</v>
+        <v>1.03147664177432</v>
       </c>
       <c r="F3" t="n">
-        <v>1.784261297432381</v>
+        <v>1.784261297562801</v>
       </c>
       <c r="G3" t="n">
-        <v>1.212066784312204</v>
+        <v>1.212066785034684</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2615074491786231</v>
+        <v>0.2615074497564744</v>
       </c>
       <c r="I3" t="n">
-        <v>-41.85105980884082</v>
+        <v>-41.85105942857134</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9916761392690684</v>
+        <v>0.991676139172465</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9305249643773822</v>
+        <v>0.9305249643191131</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36285970328053</v>
+        <v>1.362859703170244</v>
       </c>
       <c r="M3" t="n">
-        <v>1.151371830286766</v>
+        <v>1.15137183062006</v>
       </c>
       <c r="N3" t="n">
         <v>31</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253230564453438</v>
+        <v>1.253230564384127</v>
       </c>
       <c r="F4" t="n">
-        <v>2.216903761459322</v>
+        <v>2.216903761387358</v>
       </c>
       <c r="G4" t="n">
-        <v>1.23395643284321</v>
+        <v>1.2339564330105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6151799060719441</v>
+        <v>0.6151799070282209</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.23667559686179</v>
+        <v>-37.23667514311979</v>
       </c>
       <c r="J4" t="n">
-        <v>1.010571844752162</v>
+        <v>1.010571844768016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9070572982590387</v>
+        <v>0.9070572981808515</v>
       </c>
       <c r="L4" t="n">
-        <v>1.358096633118543</v>
+        <v>1.358096633078421</v>
       </c>
       <c r="M4" t="n">
-        <v>1.751193981076725</v>
+        <v>1.75119398101543</v>
       </c>
       <c r="N4" t="n">
         <v>25.66666666666667</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.035512212843225</v>
+        <v>1.035512212556103</v>
       </c>
       <c r="F5" t="n">
-        <v>1.525892454049281</v>
+        <v>1.525892453299911</v>
       </c>
       <c r="G5" t="n">
-        <v>1.563884107925882</v>
+        <v>1.563884114330544</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5071875201634081</v>
+        <v>0.507187530946131</v>
       </c>
       <c r="I5" t="n">
-        <v>-31.9285308086288</v>
+        <v>-31.92852767623915</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6052537311206511</v>
+        <v>0.6052537310481672</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7974105589566024</v>
+        <v>0.7974105590545503</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001211331305395</v>
+        <v>1.001211331339113</v>
       </c>
       <c r="M5" t="n">
-        <v>1.151303556712754</v>
+        <v>1.15130355569282</v>
       </c>
       <c r="N5" t="n">
         <v>37</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.010030220351113</v>
+        <v>1.01003022498348</v>
       </c>
       <c r="F6" t="n">
-        <v>1.323848133699197</v>
+        <v>1.323848136630811</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5613871782449</v>
+        <v>1.561387194984244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6504043456368814</v>
+        <v>0.6504043701476879</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.08738410883359</v>
+        <v>-28.08737454811404</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7218655319384647</v>
+        <v>0.7218655314162571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7112344470993194</v>
+        <v>0.7112344459675404</v>
       </c>
       <c r="L6" t="n">
-        <v>1.013416679248884</v>
+        <v>1.013416678082864</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8512765260166194</v>
+        <v>0.8512765320565759</v>
       </c>
       <c r="N6" t="n">
         <v>63</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.687199704286364</v>
+        <v>0.6871997043057924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9506052054569895</v>
+        <v>0.9506052054799996</v>
       </c>
       <c r="G7" t="n">
-        <v>1.715135466978097</v>
+        <v>1.715135466691057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.946723190405199</v>
+        <v>0.9467231900255797</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.09195798719605</v>
+        <v>-22.09195809328781</v>
       </c>
       <c r="J7" t="n">
-        <v>0.422402797398842</v>
+        <v>0.4224027973847317</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6011422191627395</v>
+        <v>0.6011422191777952</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7348441263535204</v>
+        <v>0.7348441263577161</v>
       </c>
       <c r="M7" t="n">
-        <v>0.60299962045332</v>
+        <v>0.6029996204845003</v>
       </c>
       <c r="N7" t="n">
         <v>70.66666666666667</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6063252961248434</v>
+        <v>0.6063252961265277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.803885726008655</v>
+        <v>0.8038857260103874</v>
       </c>
       <c r="G8" t="n">
-        <v>1.850744304768189</v>
+        <v>1.850744304758583</v>
       </c>
       <c r="H8" t="n">
-        <v>1.017897918917924</v>
+        <v>1.017897918899128</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.41198874921441</v>
+        <v>-17.41198875352643</v>
       </c>
       <c r="J8" t="n">
-        <v>0.395295792628547</v>
+        <v>0.3952957926280334</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5301969126311757</v>
+        <v>0.5301969126311902</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6613423997530269</v>
+        <v>0.6613423997527315</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4568337958437474</v>
+        <v>0.4568337958472404</v>
       </c>
       <c r="N8" t="n">
         <v>71.66666666666667</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6917365535886505</v>
+        <v>0.6917365535361611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8862047677570216</v>
+        <v>0.8862047677121395</v>
       </c>
       <c r="G9" t="n">
-        <v>1.889622687593961</v>
+        <v>1.889622687735368</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9209239607629343</v>
+        <v>0.9209239611085422</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.60032195824733</v>
+        <v>-12.60032188877601</v>
       </c>
       <c r="J9" t="n">
-        <v>0.392955398796685</v>
+        <v>0.3929553987987985</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5358875038512352</v>
+        <v>0.5358875038619185</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6645521328424745</v>
+        <v>0.6645521328523479</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5861315387590308</v>
+        <v>0.5861315386799103</v>
       </c>
       <c r="N9" t="n">
         <v>68.33333333333333</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3963782007877167</v>
+        <v>0.3963782013213669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7884333549010184</v>
+        <v>0.7884333549759842</v>
       </c>
       <c r="G10" t="n">
-        <v>1.842717442372172</v>
+        <v>1.842717440592632</v>
       </c>
       <c r="H10" t="n">
-        <v>1.15923815622214</v>
+        <v>1.159238147570212</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.390189276701957</v>
+        <v>-6.390190347657483</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2369372002017601</v>
+        <v>0.2369372002692488</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2794041792802486</v>
+        <v>0.2794041791400326</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3663617312504885</v>
+        <v>0.366361731187364</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6980157475969863</v>
+        <v>0.6980157477153623</v>
       </c>
       <c r="N10" t="n">
         <v>56.66666666666666</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>1.322817063458514</v>
+        <v>1.322817063457853</v>
       </c>
       <c r="F11" t="n">
-        <v>2.26664370724035</v>
+        <v>2.266643707239691</v>
       </c>
       <c r="G11" t="n">
-        <v>1.910957208390319</v>
+        <v>1.910957208380978</v>
       </c>
       <c r="H11" t="n">
-        <v>1.101072208669962</v>
+        <v>1.10107220868457</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.120366494689064</v>
+        <v>-2.120366490587576</v>
       </c>
       <c r="J11" t="n">
-        <v>0.245075216808165</v>
+        <v>0.2450752168080534</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2921931638339282</v>
+        <v>0.2921931638334319</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3814537321984484</v>
+        <v>0.3814537321979903</v>
       </c>
       <c r="M11" t="n">
-        <v>2.234108369632644</v>
+        <v>2.234108369632057</v>
       </c>
       <c r="N11" t="n">
         <v>64.33333333333333</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8089445199636889</v>
+        <v>0.8089445199518942</v>
       </c>
       <c r="F12" t="n">
-        <v>1.205682148526546</v>
+        <v>1.205682148512449</v>
       </c>
       <c r="G12" t="n">
-        <v>1.883557721813967</v>
+        <v>1.883557721907702</v>
       </c>
       <c r="H12" t="n">
-        <v>1.201939146695698</v>
+        <v>1.201939146849005</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.259865197236919</v>
+        <v>-1.259865281125995</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2417830605881364</v>
+        <v>0.2417830605866849</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2545289666403293</v>
+        <v>0.2545289666340302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3511128143004447</v>
+        <v>0.3511128142948983</v>
       </c>
       <c r="M12" t="n">
-        <v>1.153408840492191</v>
+        <v>1.153408840479131</v>
       </c>
       <c r="N12" t="n">
         <v>64</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3918402534958963</v>
+        <v>0.3918402532655832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8180625242499864</v>
+        <v>0.818062523838328</v>
       </c>
       <c r="G13" t="n">
-        <v>1.730470850709082</v>
+        <v>1.730470856149774</v>
       </c>
       <c r="H13" t="n">
-        <v>1.136088301449907</v>
+        <v>1.136088300542516</v>
       </c>
       <c r="I13" t="n">
-        <v>2.826428975590192</v>
+        <v>2.826427961140709</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2610140212785526</v>
+        <v>0.261014021063659</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2549490550270588</v>
+        <v>0.2549490548848243</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3650106009139841</v>
+        <v>0.365010600662376</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7320450694689168</v>
+        <v>0.7320450691346093</v>
       </c>
       <c r="N13" t="n">
         <v>14.33333333333333</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2450417839965984</v>
+        <v>0.2450417837753495</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5000225601885032</v>
+        <v>0.5000225607308032</v>
       </c>
       <c r="G14" t="n">
-        <v>1.849394440676273</v>
+        <v>1.8493944438207</v>
       </c>
       <c r="H14" t="n">
-        <v>1.136300983922107</v>
+        <v>1.136300989800892</v>
       </c>
       <c r="I14" t="n">
-        <v>11.12022238664516</v>
+        <v>11.12022430209499</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1457780174246225</v>
+        <v>0.1457780180930397</v>
       </c>
       <c r="K14" t="n">
-        <v>0.163621162856718</v>
+        <v>0.1636211644841625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2198107302934351</v>
+        <v>0.2198107319629073</v>
       </c>
       <c r="M14" t="n">
-        <v>0.449036689774872</v>
+        <v>0.4490366895613526</v>
       </c>
       <c r="N14" t="n">
         <v>8.666666666666666</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1924986508235238</v>
+        <v>0.1924986508235888</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6271801257816799</v>
+        <v>0.6271801257815407</v>
       </c>
       <c r="G15" t="n">
-        <v>1.674383013192198</v>
+        <v>1.674383013185358</v>
       </c>
       <c r="H15" t="n">
-        <v>1.161275417520585</v>
+        <v>1.161275417522423</v>
       </c>
       <c r="I15" t="n">
-        <v>14.08683393769313</v>
+        <v>14.08683394028451</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2077981770827732</v>
+        <v>0.2077981770812613</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2427130593417226</v>
+        <v>0.2427130593427592</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3200626640941338</v>
+        <v>0.3200626640939541</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5366117739765773</v>
+        <v>0.5366117739764773</v>
       </c>
       <c r="N15" t="n">
         <v>12</v>
@@ -1229,31 +1229,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2784317533695891</v>
+        <v>0.2784317533688258</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5723361597952509</v>
+        <v>0.5723361597943211</v>
       </c>
       <c r="G16" t="n">
-        <v>1.724991619661959</v>
+        <v>1.724991619673006</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8807872064128143</v>
+        <v>0.8807872064091763</v>
       </c>
       <c r="I16" t="n">
-        <v>25.95548544430369</v>
+        <v>25.95548544017831</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1666427810430894</v>
+        <v>0.1666427810433494</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3781030114316812</v>
+        <v>0.3781030114311707</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4153722337302218</v>
+        <v>0.4153722337299214</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3838740134376908</v>
+        <v>0.3838740134367165</v>
       </c>
       <c r="N16" t="n">
         <v>8.666666666666666</v>
@@ -1279,31 +1279,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4499515320558709</v>
+        <v>0.4499515320623874</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8844739318213034</v>
+        <v>0.8844739310545622</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4367442920136</v>
+        <v>1.436744286347543</v>
       </c>
       <c r="H17" t="n">
-        <v>1.141564084280636</v>
+        <v>1.141564097909831</v>
       </c>
       <c r="I17" t="n">
-        <v>30.7033636825329</v>
+        <v>30.70337027019931</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2751633078020637</v>
+        <v>0.2751633088529918</v>
       </c>
       <c r="K17" t="n">
-        <v>0.406977571480482</v>
+        <v>0.4069775718185383</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4926374803636033</v>
+        <v>0.4926374812568365</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7344260398187511</v>
+        <v>0.7344260382898714</v>
       </c>
       <c r="N17" t="n">
         <v>44.33333333333334</v>
@@ -1329,31 +1329,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.634438891372162</v>
+        <v>0.6344388897806805</v>
       </c>
       <c r="F18" t="n">
-        <v>1.234765805304362</v>
+        <v>1.234765806089254</v>
       </c>
       <c r="G18" t="n">
-        <v>1.474257885819971</v>
+        <v>1.474257883701455</v>
       </c>
       <c r="H18" t="n">
-        <v>1.047405323965885</v>
+        <v>1.047405272157486</v>
       </c>
       <c r="I18" t="n">
-        <v>35.92260668246824</v>
+        <v>35.92258794509795</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4522585350490662</v>
+        <v>0.4522585330186735</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6070606707587719</v>
+        <v>0.6070606690799064</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7593187216165708</v>
+        <v>0.7593187190593769</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9720572095643342</v>
+        <v>0.9720572124031466</v>
       </c>
       <c r="N18" t="n">
         <v>44.66666666666666</v>
@@ -1379,31 +1379,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8001997821735506</v>
+        <v>0.800199782173325</v>
       </c>
       <c r="F19" t="n">
-        <v>1.363129454279097</v>
+        <v>1.363129454279022</v>
       </c>
       <c r="G19" t="n">
-        <v>1.525016109193966</v>
+        <v>1.525016109196163</v>
       </c>
       <c r="H19" t="n">
-        <v>1.152888567271001</v>
+        <v>1.152888567265469</v>
       </c>
       <c r="I19" t="n">
-        <v>40.55083074123163</v>
+        <v>40.55083073968274</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4560898643343016</v>
+        <v>0.4560898643336677</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6296943653661218</v>
+        <v>0.6296943653664698</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7778350797792259</v>
+        <v>0.7778350797791359</v>
       </c>
       <c r="M19" t="n">
-        <v>1.119077108703207</v>
+        <v>1.119077108703152</v>
       </c>
       <c r="N19" t="n">
         <v>44.33333333333334</v>
@@ -1429,31 +1429,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7709497307225407</v>
+        <v>0.7709497339807282</v>
       </c>
       <c r="F20" t="n">
-        <v>1.447853593655676</v>
+        <v>1.44785359745282</v>
       </c>
       <c r="G20" t="n">
-        <v>1.370185205433207</v>
+        <v>1.370185173437543</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8970273572383576</v>
+        <v>0.8970273707812643</v>
       </c>
       <c r="I20" t="n">
-        <v>44.54482885972181</v>
+        <v>44.54484178003941</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4477728417617526</v>
+        <v>0.4477728475339539</v>
       </c>
       <c r="K20" t="n">
-        <v>0.985449460588658</v>
+        <v>0.9854494579659473</v>
       </c>
       <c r="L20" t="n">
-        <v>1.083522383603926</v>
+        <v>1.083522383621785</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9534221035250333</v>
+        <v>0.9534221093260374</v>
       </c>
       <c r="N20" t="n">
         <v>41</v>
@@ -1479,31 +1479,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6574851847837571</v>
+        <v>0.6574851847900655</v>
       </c>
       <c r="F21" t="n">
-        <v>1.341773214627952</v>
+        <v>1.341773214633675</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9637074826125058</v>
+        <v>0.9637074826474455</v>
       </c>
       <c r="H21" t="n">
-        <v>1.175915941691661</v>
+        <v>1.175915941697156</v>
       </c>
       <c r="I21" t="n">
-        <v>49.42887974403332</v>
+        <v>49.42887972572937</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6456852039945042</v>
+        <v>0.6456852039914164</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8862288206195239</v>
+        <v>0.8862288206202914</v>
       </c>
       <c r="L21" t="n">
-        <v>1.09721854157565</v>
+        <v>1.097218541574441</v>
       </c>
       <c r="M21" t="n">
-        <v>1.139174251887823</v>
+        <v>1.139174251891641</v>
       </c>
       <c r="N21" t="n">
         <v>42</v>
